--- a/Code/Results/Cases/Case_3_83/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_83/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9956221096132105</v>
+        <v>1.023602512305199</v>
       </c>
       <c r="D2">
-        <v>1.014890630318487</v>
+        <v>1.028163376903938</v>
       </c>
       <c r="E2">
-        <v>1.011410747981204</v>
+        <v>1.034535632064959</v>
       </c>
       <c r="F2">
-        <v>1.019506356077659</v>
+        <v>1.046426151656681</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044950762670484</v>
+        <v>1.031620878894135</v>
       </c>
       <c r="J2">
-        <v>1.01793455577272</v>
+        <v>1.028781809391155</v>
       </c>
       <c r="K2">
-        <v>1.026146340833284</v>
+        <v>1.030980993169081</v>
       </c>
       <c r="L2">
-        <v>1.022713369364264</v>
+        <v>1.037334826090936</v>
       </c>
       <c r="M2">
-        <v>1.030700464028232</v>
+        <v>1.049191621138973</v>
       </c>
       <c r="N2">
-        <v>1.009991491659068</v>
+        <v>1.013652721814535</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9996223721833394</v>
+        <v>1.024446788975063</v>
       </c>
       <c r="D3">
-        <v>1.017720748819528</v>
+        <v>1.028766109777419</v>
       </c>
       <c r="E3">
-        <v>1.014853232825052</v>
+        <v>1.03531672620725</v>
       </c>
       <c r="F3">
-        <v>1.023626608951517</v>
+        <v>1.047365262878193</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046007339365447</v>
+        <v>1.031760979094724</v>
       </c>
       <c r="J3">
-        <v>1.020123337010294</v>
+        <v>1.029265180090462</v>
       </c>
       <c r="K3">
-        <v>1.028131801082848</v>
+        <v>1.031392157729511</v>
       </c>
       <c r="L3">
-        <v>1.025299526756664</v>
+        <v>1.037925203127292</v>
       </c>
       <c r="M3">
-        <v>1.033965850906879</v>
+        <v>1.049942041242463</v>
       </c>
       <c r="N3">
-        <v>1.010719686042738</v>
+        <v>1.013812939528151</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002160683420353</v>
+        <v>1.024993492541244</v>
       </c>
       <c r="D4">
-        <v>1.019516629344569</v>
+        <v>1.029156046098251</v>
       </c>
       <c r="E4">
-        <v>1.017043088460679</v>
+        <v>1.035822885364214</v>
       </c>
       <c r="F4">
-        <v>1.026246146958341</v>
+        <v>1.047973737776813</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046663553606289</v>
+        <v>1.031849929379007</v>
       </c>
       <c r="J4">
-        <v>1.02150927972061</v>
+        <v>1.029577715175837</v>
       </c>
       <c r="K4">
-        <v>1.029385076752191</v>
+        <v>1.031657442561358</v>
       </c>
       <c r="L4">
-        <v>1.026940079608761</v>
+        <v>1.038307298049421</v>
       </c>
       <c r="M4">
-        <v>1.036037796791093</v>
+        <v>1.050427794530968</v>
       </c>
       <c r="N4">
-        <v>1.011180724602462</v>
+        <v>1.013916510019741</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00321616914011</v>
+        <v>1.025223421024438</v>
       </c>
       <c r="D5">
-        <v>1.020263359231512</v>
+        <v>1.029319956283175</v>
       </c>
       <c r="E5">
-        <v>1.017954961158181</v>
+        <v>1.036035849900419</v>
       </c>
       <c r="F5">
-        <v>1.027336608163527</v>
+        <v>1.048229732093692</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046932958826726</v>
+        <v>1.031886915293336</v>
       </c>
       <c r="J5">
-        <v>1.022084855657046</v>
+        <v>1.029709046725102</v>
       </c>
       <c r="K5">
-        <v>1.029904595666534</v>
+        <v>1.031768783586002</v>
       </c>
       <c r="L5">
-        <v>1.027622118185396</v>
+        <v>1.038467948911229</v>
       </c>
       <c r="M5">
-        <v>1.036899311763296</v>
+        <v>1.050632047030354</v>
       </c>
       <c r="N5">
-        <v>1.011372176706772</v>
+        <v>1.013960026427327</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003392719141613</v>
+        <v>1.025262032515439</v>
       </c>
       <c r="D6">
-        <v>1.020388260281794</v>
+        <v>1.029347476356061</v>
       </c>
       <c r="E6">
-        <v>1.018107563665559</v>
+        <v>1.03607161780915</v>
       </c>
       <c r="F6">
-        <v>1.027519078391663</v>
+        <v>1.048272725842531</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046977816920417</v>
+        <v>1.031893101394525</v>
       </c>
       <c r="J6">
-        <v>1.022181087916309</v>
+        <v>1.029731094422134</v>
       </c>
       <c r="K6">
-        <v>1.029991398515127</v>
+        <v>1.031787467363934</v>
       </c>
       <c r="L6">
-        <v>1.027736193026052</v>
+        <v>1.038494923923075</v>
       </c>
       <c r="M6">
-        <v>1.037043412894638</v>
+        <v>1.050666344329721</v>
       </c>
       <c r="N6">
-        <v>1.011404185213558</v>
+        <v>1.013967331567039</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002174832040879</v>
+        <v>1.024996564488199</v>
       </c>
       <c r="D7">
-        <v>1.019526639356003</v>
+        <v>1.029158236351234</v>
       </c>
       <c r="E7">
-        <v>1.017055306946071</v>
+        <v>1.035825730320385</v>
       </c>
       <c r="F7">
-        <v>1.026260759709366</v>
+        <v>1.047977157635276</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046667178685163</v>
+        <v>1.031850425193942</v>
       </c>
       <c r="J7">
-        <v>1.021516998145561</v>
+        <v>1.029579470264631</v>
       </c>
       <c r="K7">
-        <v>1.029392047280503</v>
+        <v>1.031658931033044</v>
       </c>
       <c r="L7">
-        <v>1.026949222818162</v>
+        <v>1.038309444604464</v>
       </c>
       <c r="M7">
-        <v>1.036049345485578</v>
+        <v>1.050430523600549</v>
       </c>
       <c r="N7">
-        <v>1.011183292021347</v>
+        <v>1.013917091585416</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9969846304109469</v>
+        <v>1.023887755823251</v>
       </c>
       <c r="D8">
-        <v>1.015854543778463</v>
+        <v>1.028367087177364</v>
       </c>
       <c r="E8">
-        <v>1.012582118782748</v>
+        <v>1.034799452450808</v>
       </c>
       <c r="F8">
-        <v>1.020908666863187</v>
+        <v>1.046743360508216</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045313590019869</v>
+        <v>1.03166857870066</v>
       </c>
       <c r="J8">
-        <v>1.018680665182836</v>
+        <v>1.028945215355049</v>
       </c>
       <c r="K8">
-        <v>1.026823953843547</v>
+        <v>1.031120106007078</v>
       </c>
       <c r="L8">
-        <v>1.02359431236967</v>
+        <v>1.037534329084999</v>
       </c>
       <c r="M8">
-        <v>1.031812673590384</v>
+        <v>1.049445190633059</v>
       </c>
       <c r="N8">
-        <v>1.010239728554376</v>
+        <v>1.01370688881402</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9874369449683523</v>
+        <v>1.021937023005544</v>
       </c>
       <c r="D9">
-        <v>1.00910257809069</v>
+        <v>1.026972506624288</v>
       </c>
       <c r="E9">
-        <v>1.004398420290553</v>
+        <v>1.03299675447827</v>
       </c>
       <c r="F9">
-        <v>1.011104642688219</v>
+        <v>1.044575511788682</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042712976992247</v>
+        <v>1.031335130013882</v>
       </c>
       <c r="J9">
-        <v>1.013441272623454</v>
+        <v>1.027825806807181</v>
       </c>
       <c r="K9">
-        <v>1.022049678663493</v>
+        <v>1.030164817231098</v>
       </c>
       <c r="L9">
-        <v>1.017420537006463</v>
+        <v>1.036169160454163</v>
       </c>
       <c r="M9">
-        <v>1.024020087852353</v>
+        <v>1.047710366589786</v>
       </c>
       <c r="N9">
-        <v>1.008496368811423</v>
+        <v>1.013335729343562</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9807750160034527</v>
+        <v>1.020638726099384</v>
       </c>
       <c r="D10">
-        <v>1.004397140012879</v>
+        <v>1.026042571887354</v>
       </c>
       <c r="E10">
-        <v>0.99872094236058</v>
+        <v>1.031798911958201</v>
       </c>
       <c r="F10">
-        <v>1.004293517254603</v>
+        <v>1.043134591903545</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040826830480244</v>
+        <v>1.031104133253634</v>
       </c>
       <c r="J10">
-        <v>1.009772718595379</v>
+        <v>1.027078415234001</v>
       </c>
       <c r="K10">
-        <v>1.018687454011961</v>
+        <v>1.029524128543068</v>
       </c>
       <c r="L10">
-        <v>1.013113329053994</v>
+        <v>1.035259587983246</v>
       </c>
       <c r="M10">
-        <v>1.018585681233474</v>
+        <v>1.046554891606232</v>
       </c>
       <c r="N10">
-        <v>1.007275551438952</v>
+        <v>1.01308780712498</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.977813541940671</v>
+        <v>1.020077087221802</v>
       </c>
       <c r="D11">
-        <v>1.002307623370513</v>
+        <v>1.025639871018728</v>
       </c>
       <c r="E11">
-        <v>0.9962053967494794</v>
+        <v>1.031281192321378</v>
       </c>
       <c r="F11">
-        <v>1.001273142521551</v>
+        <v>1.042511702318238</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039972134579041</v>
+        <v>1.031002056729334</v>
       </c>
       <c r="J11">
-        <v>1.008139344535606</v>
+        <v>1.026754535827392</v>
       </c>
       <c r="K11">
-        <v>1.017186152113014</v>
+        <v>1.029245811052098</v>
       </c>
       <c r="L11">
-        <v>1.011199230285923</v>
+        <v>1.034865877888992</v>
       </c>
       <c r="M11">
-        <v>1.016171089112327</v>
+        <v>1.046054832591447</v>
       </c>
       <c r="N11">
-        <v>1.006731990506245</v>
+        <v>1.012980344895862</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9767013943556672</v>
+        <v>1.019868550938002</v>
       </c>
       <c r="D12">
-        <v>1.001523339414881</v>
+        <v>1.025490286791547</v>
       </c>
       <c r="E12">
-        <v>0.9952620085695729</v>
+        <v>1.031089033227099</v>
       </c>
       <c r="F12">
-        <v>1.000140025624651</v>
+        <v>1.042280491108593</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039648788793262</v>
+        <v>1.030963833283274</v>
       </c>
       <c r="J12">
-        <v>1.007525604509181</v>
+        <v>1.026634195625243</v>
       </c>
       <c r="K12">
-        <v>1.016621412723612</v>
+        <v>1.029142298345366</v>
       </c>
       <c r="L12">
-        <v>1.010480547465065</v>
+        <v>1.034719658917124</v>
       </c>
       <c r="M12">
-        <v>1.015264543456142</v>
+        <v>1.045869130420726</v>
       </c>
       <c r="N12">
-        <v>1.00652774840463</v>
+        <v>1.012940412492541</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9769405122207464</v>
+        <v>1.01991327897206</v>
       </c>
       <c r="D13">
-        <v>1.001691945014405</v>
+        <v>1.025522373232384</v>
       </c>
       <c r="E13">
-        <v>0.995464782860545</v>
+        <v>1.031130245415084</v>
       </c>
       <c r="F13">
-        <v>1.000383599453578</v>
+        <v>1.042330079533106</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039718416162099</v>
+        <v>1.030972046252232</v>
       </c>
       <c r="J13">
-        <v>1.007657576931988</v>
+        <v>1.026660010661165</v>
       </c>
       <c r="K13">
-        <v>1.016742876431734</v>
+        <v>1.029164508179444</v>
       </c>
       <c r="L13">
-        <v>1.010635061431441</v>
+        <v>1.034751022343943</v>
       </c>
       <c r="M13">
-        <v>1.015459444768145</v>
+        <v>1.045908962240605</v>
       </c>
       <c r="N13">
-        <v>1.006571666480636</v>
+        <v>1.012948978852539</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C14">
-        <v>0.9777218623125005</v>
+        <v>1.020059847878631</v>
       </c>
       <c r="D14">
-        <v>1.002242962320998</v>
+        <v>1.025627506394844</v>
       </c>
       <c r="E14">
-        <v>0.9961276021250638</v>
+        <v>1.03126530542236</v>
       </c>
       <c r="F14">
-        <v>1.001179710701231</v>
+        <v>1.042492587100133</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039945527541639</v>
+        <v>1.030998903439202</v>
       </c>
       <c r="J14">
-        <v>1.008088757798033</v>
+        <v>1.026744589216104</v>
       </c>
       <c r="K14">
-        <v>1.017139616769489</v>
+        <v>1.029237257369325</v>
       </c>
       <c r="L14">
-        <v>1.011139982837537</v>
+        <v>1.034853790916722</v>
       </c>
       <c r="M14">
-        <v>1.016096353350175</v>
+        <v>1.046039481526049</v>
       </c>
       <c r="N14">
-        <v>1.006715156082917</v>
+        <v>1.012977044397906</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9782016532212039</v>
+        <v>1.020150164648959</v>
       </c>
       <c r="D15">
-        <v>1.002581372926202</v>
+        <v>1.025692282035376</v>
       </c>
       <c r="E15">
-        <v>0.9965347811922598</v>
+        <v>1.031348539618822</v>
       </c>
       <c r="F15">
-        <v>1.001668718540523</v>
+        <v>1.042592734326398</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040084674855677</v>
+        <v>1.031015410292402</v>
       </c>
       <c r="J15">
-        <v>1.008353481700589</v>
+        <v>1.026796695991616</v>
       </c>
       <c r="K15">
-        <v>1.017383114088303</v>
+        <v>1.029282062934178</v>
       </c>
       <c r="L15">
-        <v>1.011450050798936</v>
+        <v>1.034917113045853</v>
       </c>
       <c r="M15">
-        <v>1.016487480724064</v>
+        <v>1.046119904379074</v>
       </c>
       <c r="N15">
-        <v>1.006803251832832</v>
+        <v>1.012994334379655</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9809698919017926</v>
+        <v>1.020676011558596</v>
       </c>
       <c r="D16">
-        <v>1.00453469062155</v>
+        <v>1.026069297273245</v>
       </c>
       <c r="E16">
-        <v>0.9988866516957955</v>
+        <v>1.031833291551173</v>
       </c>
       <c r="F16">
-        <v>1.004492426701222</v>
+        <v>1.043175953056293</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040882739554844</v>
+        <v>1.03111086454365</v>
       </c>
       <c r="J16">
-        <v>1.009880150501288</v>
+        <v>1.027099904794402</v>
       </c>
       <c r="K16">
-        <v>1.018786111126072</v>
+        <v>1.029542580809301</v>
       </c>
       <c r="L16">
-        <v>1.013239300179098</v>
+        <v>1.035285720305828</v>
       </c>
       <c r="M16">
-        <v>1.018744599201751</v>
+        <v>1.046588084682433</v>
       </c>
       <c r="N16">
-        <v>1.007311303069948</v>
+        <v>1.013094936751816</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9826853688196291</v>
+        <v>1.021006004945771</v>
       </c>
       <c r="D17">
-        <v>1.00574580005105</v>
+        <v>1.026305781385028</v>
       </c>
       <c r="E17">
-        <v>1.00034632942894</v>
+        <v>1.032137620260039</v>
       </c>
       <c r="F17">
-        <v>1.006244260375712</v>
+        <v>1.04354206994616</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041373060776547</v>
+        <v>1.031170191299659</v>
       </c>
       <c r="J17">
-        <v>1.01082557740068</v>
+        <v>1.027290032516661</v>
       </c>
       <c r="K17">
-        <v>1.019653829067472</v>
+        <v>1.0297057580574</v>
       </c>
       <c r="L17">
-        <v>1.014348288959631</v>
+        <v>1.035516976537961</v>
       </c>
       <c r="M17">
-        <v>1.02014368378804</v>
+        <v>1.046881835010518</v>
       </c>
       <c r="N17">
-        <v>1.007625925404964</v>
+        <v>1.013158012736164</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.983678607299</v>
+        <v>1.021198535763489</v>
       </c>
       <c r="D18">
-        <v>1.006447222593072</v>
+        <v>1.026443715265521</v>
       </c>
       <c r="E18">
-        <v>1.001192248937251</v>
+        <v>1.032315221988681</v>
       </c>
       <c r="F18">
-        <v>1.007259251567786</v>
+        <v>1.043755719792136</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041655403988937</v>
+        <v>1.03120459741427</v>
       </c>
       <c r="J18">
-        <v>1.011372720630889</v>
+        <v>1.027400906221499</v>
       </c>
       <c r="K18">
-        <v>1.020155588891204</v>
+        <v>1.029800850139865</v>
       </c>
       <c r="L18">
-        <v>1.014990434297559</v>
+        <v>1.035651877880217</v>
       </c>
       <c r="M18">
-        <v>1.020953846399314</v>
+        <v>1.047053200484203</v>
       </c>
       <c r="N18">
-        <v>1.007808004617262</v>
+        <v>1.013194793222848</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9840160429629569</v>
+        <v>1.021264192447397</v>
       </c>
       <c r="D19">
-        <v>1.006685551579189</v>
+        <v>1.026490746540626</v>
       </c>
       <c r="E19">
-        <v>1.001479767328317</v>
+        <v>1.032375795131908</v>
       </c>
       <c r="F19">
-        <v>1.007604195513546</v>
+        <v>1.043828585787267</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041751061046624</v>
+        <v>1.031216295370705</v>
       </c>
       <c r="J19">
-        <v>1.011558560131883</v>
+        <v>1.027438707084696</v>
       </c>
       <c r="K19">
-        <v>1.020325943293953</v>
+        <v>1.029833259381071</v>
       </c>
       <c r="L19">
-        <v>1.015208600281377</v>
+        <v>1.035697878000018</v>
       </c>
       <c r="M19">
-        <v>1.021229102699825</v>
+        <v>1.04711163602408</v>
       </c>
       <c r="N19">
-        <v>1.007869848365084</v>
+        <v>1.013207332596055</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9825020808145377</v>
+        <v>1.020970594466093</v>
       </c>
       <c r="D20">
-        <v>1.005616378648108</v>
+        <v>1.026280409206585</v>
       </c>
       <c r="E20">
-        <v>1.000190290164971</v>
+        <v>1.032104959147544</v>
       </c>
       <c r="F20">
-        <v>1.0060570147512</v>
+        <v>1.04350277870673</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041320832958033</v>
+        <v>1.031163846592786</v>
       </c>
       <c r="J20">
-        <v>1.010724589717722</v>
+        <v>1.027269636145188</v>
       </c>
       <c r="K20">
-        <v>1.019561184522301</v>
+        <v>1.029688259615228</v>
       </c>
       <c r="L20">
-        <v>1.014229794374743</v>
+        <v>1.035492163527373</v>
       </c>
       <c r="M20">
-        <v>1.019994188482759</v>
+        <v>1.046850315692481</v>
       </c>
       <c r="N20">
-        <v>1.007592318468447</v>
+        <v>1.01315124638037</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9774921137498086</v>
+        <v>1.020016684730131</v>
       </c>
       <c r="D21">
-        <v>1.002080929013386</v>
+        <v>1.025596547372937</v>
       </c>
       <c r="E21">
-        <v>0.9959326703449881</v>
+        <v>1.031225529599392</v>
       </c>
       <c r="F21">
-        <v>1.000945589809765</v>
+        <v>1.042444728304376</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039878812440413</v>
+        <v>1.030991003153936</v>
       </c>
       <c r="J21">
-        <v>1.007961982335773</v>
+        <v>1.02671968395083</v>
       </c>
       <c r="K21">
-        <v>1.017022984512385</v>
+        <v>1.029215838212851</v>
       </c>
       <c r="L21">
-        <v>1.010991511433639</v>
+        <v>1.034823527502014</v>
       </c>
       <c r="M21">
-        <v>1.015909069820175</v>
+        <v>1.046001045677353</v>
       </c>
       <c r="N21">
-        <v>1.006672967342089</v>
+        <v>1.012968780236666</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.974271684584381</v>
+        <v>1.019417395499079</v>
       </c>
       <c r="D22">
-        <v>0.9998107534924698</v>
+        <v>1.025166558681532</v>
       </c>
       <c r="E22">
-        <v>0.9932034257189282</v>
+        <v>1.030673437273108</v>
       </c>
       <c r="F22">
-        <v>0.9976666586629607</v>
+        <v>1.041780403378545</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038938082907341</v>
+        <v>1.030880549886287</v>
       </c>
       <c r="J22">
-        <v>1.006184177522081</v>
+        <v>1.026373693864588</v>
       </c>
       <c r="K22">
-        <v>1.015385960325569</v>
+        <v>1.028918038108807</v>
       </c>
       <c r="L22">
-        <v>1.008910737255808</v>
+        <v>1.034403260257181</v>
       </c>
       <c r="M22">
-        <v>1.013284481651836</v>
+        <v>1.045467319751684</v>
       </c>
       <c r="N22">
-        <v>1.006081348490026</v>
+        <v>1.012853963317733</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9759857790179762</v>
+        <v>1.019735044869397</v>
       </c>
       <c r="D23">
-        <v>1.001018814362577</v>
+        <v>1.025394504905581</v>
       </c>
       <c r="E23">
-        <v>0.9946553535469772</v>
+        <v>1.030966031681399</v>
       </c>
       <c r="F23">
-        <v>0.9994112461252302</v>
+        <v>1.042132487437129</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039440069941932</v>
+        <v>1.030939271678687</v>
       </c>
       <c r="J23">
-        <v>1.007130599216463</v>
+        <v>1.026557129582314</v>
       </c>
       <c r="K23">
-        <v>1.016257771097762</v>
+        <v>1.029075980143061</v>
       </c>
       <c r="L23">
-        <v>1.010018151958719</v>
+        <v>1.034626039035449</v>
       </c>
       <c r="M23">
-        <v>1.014681293217297</v>
+        <v>1.045750234330921</v>
       </c>
       <c r="N23">
-        <v>1.006396297950248</v>
+        <v>1.012914838634207</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9825849235082885</v>
+        <v>1.020986594779402</v>
       </c>
       <c r="D24">
-        <v>1.005674874028358</v>
+        <v>1.026291873812298</v>
       </c>
       <c r="E24">
-        <v>1.00026081451482</v>
+        <v>1.032119717014511</v>
       </c>
       <c r="F24">
-        <v>1.006141644038223</v>
+        <v>1.043520532417577</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041344443737375</v>
+        <v>1.031166714105139</v>
       </c>
       <c r="J24">
-        <v>1.010770234997564</v>
+        <v>1.027278852463579</v>
       </c>
       <c r="K24">
-        <v>1.019603060075808</v>
+        <v>1.029696166675277</v>
       </c>
       <c r="L24">
-        <v>1.014283351505611</v>
+        <v>1.035503375417245</v>
       </c>
       <c r="M24">
-        <v>1.02006175717767</v>
+        <v>1.046864557835777</v>
       </c>
       <c r="N24">
-        <v>1.0076075084232</v>
+        <v>1.013154303838308</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9899555176110075</v>
+        <v>1.022440954303498</v>
       </c>
       <c r="D25">
-        <v>1.010882948204033</v>
+        <v>1.027333084550734</v>
       </c>
       <c r="E25">
-        <v>1.006551711857325</v>
+        <v>1.033462105157555</v>
       </c>
       <c r="F25">
-        <v>1.01368583654749</v>
+        <v>1.045135200134708</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043411576354843</v>
+        <v>1.031422871220043</v>
       </c>
       <c r="J25">
-        <v>1.014825712413669</v>
+        <v>1.02811540320976</v>
       </c>
       <c r="K25">
-        <v>1.02331463726756</v>
+        <v>1.030412462870842</v>
       </c>
       <c r="L25">
-        <v>1.019049165246951</v>
+        <v>1.036521999952118</v>
       </c>
       <c r="M25">
-        <v>1.026075348508084</v>
+        <v>1.048158677675268</v>
       </c>
       <c r="N25">
-        <v>1.008957060489259</v>
+        <v>1.013431769865446</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_83/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_83/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023602512305199</v>
+        <v>0.9956221096132105</v>
       </c>
       <c r="D2">
-        <v>1.028163376903938</v>
+        <v>1.014890630318487</v>
       </c>
       <c r="E2">
-        <v>1.034535632064959</v>
+        <v>1.011410747981205</v>
       </c>
       <c r="F2">
-        <v>1.046426151656681</v>
+        <v>1.019506356077659</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031620878894135</v>
+        <v>1.044950762670484</v>
       </c>
       <c r="J2">
-        <v>1.028781809391155</v>
+        <v>1.01793455577272</v>
       </c>
       <c r="K2">
-        <v>1.030980993169081</v>
+        <v>1.026146340833284</v>
       </c>
       <c r="L2">
-        <v>1.037334826090936</v>
+        <v>1.022713369364265</v>
       </c>
       <c r="M2">
-        <v>1.049191621138973</v>
+        <v>1.030700464028232</v>
       </c>
       <c r="N2">
-        <v>1.013652721814535</v>
+        <v>1.009991491659069</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024446788975063</v>
+        <v>0.9996223721833389</v>
       </c>
       <c r="D3">
-        <v>1.028766109777419</v>
+        <v>1.017720748819528</v>
       </c>
       <c r="E3">
-        <v>1.03531672620725</v>
+        <v>1.014853232825051</v>
       </c>
       <c r="F3">
-        <v>1.047365262878193</v>
+        <v>1.023626608951517</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031760979094724</v>
+        <v>1.046007339365447</v>
       </c>
       <c r="J3">
-        <v>1.029265180090462</v>
+        <v>1.020123337010293</v>
       </c>
       <c r="K3">
-        <v>1.031392157729511</v>
+        <v>1.028131801082848</v>
       </c>
       <c r="L3">
-        <v>1.037925203127292</v>
+        <v>1.025299526756663</v>
       </c>
       <c r="M3">
-        <v>1.049942041242463</v>
+        <v>1.033965850906878</v>
       </c>
       <c r="N3">
-        <v>1.013812939528151</v>
+        <v>1.010719686042738</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024993492541244</v>
+        <v>1.002160683420353</v>
       </c>
       <c r="D4">
-        <v>1.029156046098251</v>
+        <v>1.019516629344569</v>
       </c>
       <c r="E4">
-        <v>1.035822885364214</v>
+        <v>1.017043088460679</v>
       </c>
       <c r="F4">
-        <v>1.047973737776813</v>
+        <v>1.026246146958341</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031849929379007</v>
+        <v>1.046663553606289</v>
       </c>
       <c r="J4">
-        <v>1.029577715175837</v>
+        <v>1.02150927972061</v>
       </c>
       <c r="K4">
-        <v>1.031657442561358</v>
+        <v>1.029385076752192</v>
       </c>
       <c r="L4">
-        <v>1.038307298049421</v>
+        <v>1.026940079608761</v>
       </c>
       <c r="M4">
-        <v>1.050427794530968</v>
+        <v>1.036037796791093</v>
       </c>
       <c r="N4">
-        <v>1.013916510019741</v>
+        <v>1.011180724602462</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025223421024438</v>
+        <v>1.00321616914011</v>
       </c>
       <c r="D5">
-        <v>1.029319956283175</v>
+        <v>1.020263359231512</v>
       </c>
       <c r="E5">
-        <v>1.036035849900419</v>
+        <v>1.017954961158182</v>
       </c>
       <c r="F5">
-        <v>1.048229732093692</v>
+        <v>1.027336608163527</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031886915293336</v>
+        <v>1.046932958826727</v>
       </c>
       <c r="J5">
-        <v>1.029709046725102</v>
+        <v>1.022084855657047</v>
       </c>
       <c r="K5">
-        <v>1.031768783586002</v>
+        <v>1.029904595666534</v>
       </c>
       <c r="L5">
-        <v>1.038467948911229</v>
+        <v>1.027622118185397</v>
       </c>
       <c r="M5">
-        <v>1.050632047030354</v>
+        <v>1.036899311763296</v>
       </c>
       <c r="N5">
-        <v>1.013960026427327</v>
+        <v>1.011372176706772</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025262032515439</v>
+        <v>1.003392719141613</v>
       </c>
       <c r="D6">
-        <v>1.029347476356061</v>
+        <v>1.020388260281795</v>
       </c>
       <c r="E6">
-        <v>1.03607161780915</v>
+        <v>1.018107563665559</v>
       </c>
       <c r="F6">
-        <v>1.048272725842531</v>
+        <v>1.027519078391663</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031893101394525</v>
+        <v>1.046977816920417</v>
       </c>
       <c r="J6">
-        <v>1.029731094422134</v>
+        <v>1.02218108791631</v>
       </c>
       <c r="K6">
-        <v>1.031787467363934</v>
+        <v>1.029991398515127</v>
       </c>
       <c r="L6">
-        <v>1.038494923923075</v>
+        <v>1.027736193026053</v>
       </c>
       <c r="M6">
-        <v>1.050666344329721</v>
+        <v>1.037043412894639</v>
       </c>
       <c r="N6">
-        <v>1.013967331567039</v>
+        <v>1.011404185213558</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024996564488199</v>
+        <v>1.002174832040879</v>
       </c>
       <c r="D7">
-        <v>1.029158236351234</v>
+        <v>1.019526639356003</v>
       </c>
       <c r="E7">
-        <v>1.035825730320385</v>
+        <v>1.017055306946071</v>
       </c>
       <c r="F7">
-        <v>1.047977157635276</v>
+        <v>1.026260759709366</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031850425193942</v>
+        <v>1.046667178685163</v>
       </c>
       <c r="J7">
-        <v>1.029579470264631</v>
+        <v>1.021516998145561</v>
       </c>
       <c r="K7">
-        <v>1.031658931033044</v>
+        <v>1.029392047280503</v>
       </c>
       <c r="L7">
-        <v>1.038309444604464</v>
+        <v>1.026949222818162</v>
       </c>
       <c r="M7">
-        <v>1.050430523600549</v>
+        <v>1.036049345485578</v>
       </c>
       <c r="N7">
-        <v>1.013917091585416</v>
+        <v>1.011183292021347</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023887755823251</v>
+        <v>0.9969846304109472</v>
       </c>
       <c r="D8">
-        <v>1.028367087177364</v>
+        <v>1.015854543778463</v>
       </c>
       <c r="E8">
-        <v>1.034799452450808</v>
+        <v>1.012582118782748</v>
       </c>
       <c r="F8">
-        <v>1.046743360508216</v>
+        <v>1.020908666863187</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03166857870066</v>
+        <v>1.045313590019869</v>
       </c>
       <c r="J8">
-        <v>1.028945215355049</v>
+        <v>1.018680665182836</v>
       </c>
       <c r="K8">
-        <v>1.031120106007078</v>
+        <v>1.026823953843548</v>
       </c>
       <c r="L8">
-        <v>1.037534329084999</v>
+        <v>1.02359431236967</v>
       </c>
       <c r="M8">
-        <v>1.049445190633059</v>
+        <v>1.031812673590384</v>
       </c>
       <c r="N8">
-        <v>1.01370688881402</v>
+        <v>1.010239728554376</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021937023005544</v>
+        <v>0.9874369449683523</v>
       </c>
       <c r="D9">
-        <v>1.026972506624288</v>
+        <v>1.009102578090691</v>
       </c>
       <c r="E9">
-        <v>1.03299675447827</v>
+        <v>1.004398420290553</v>
       </c>
       <c r="F9">
-        <v>1.044575511788682</v>
+        <v>1.011104642688219</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031335130013882</v>
+        <v>1.042712976992247</v>
       </c>
       <c r="J9">
-        <v>1.027825806807181</v>
+        <v>1.013441272623455</v>
       </c>
       <c r="K9">
-        <v>1.030164817231098</v>
+        <v>1.022049678663493</v>
       </c>
       <c r="L9">
-        <v>1.036169160454163</v>
+        <v>1.017420537006463</v>
       </c>
       <c r="M9">
-        <v>1.047710366589786</v>
+        <v>1.024020087852354</v>
       </c>
       <c r="N9">
-        <v>1.013335729343562</v>
+        <v>1.008496368811423</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020638726099384</v>
+        <v>0.980775016003453</v>
       </c>
       <c r="D10">
-        <v>1.026042571887354</v>
+        <v>1.004397140012879</v>
       </c>
       <c r="E10">
-        <v>1.031798911958201</v>
+        <v>0.9987209423605804</v>
       </c>
       <c r="F10">
-        <v>1.043134591903545</v>
+        <v>1.004293517254604</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031104133253634</v>
+        <v>1.040826830480244</v>
       </c>
       <c r="J10">
-        <v>1.027078415234001</v>
+        <v>1.00977271859538</v>
       </c>
       <c r="K10">
-        <v>1.029524128543068</v>
+        <v>1.018687454011961</v>
       </c>
       <c r="L10">
-        <v>1.035259587983246</v>
+        <v>1.013113329053995</v>
       </c>
       <c r="M10">
-        <v>1.046554891606232</v>
+        <v>1.018585681233475</v>
       </c>
       <c r="N10">
-        <v>1.01308780712498</v>
+        <v>1.007275551438952</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020077087221802</v>
+        <v>0.9778135419406706</v>
       </c>
       <c r="D11">
-        <v>1.025639871018728</v>
+        <v>1.002307623370512</v>
       </c>
       <c r="E11">
-        <v>1.031281192321378</v>
+        <v>0.9962053967494791</v>
       </c>
       <c r="F11">
-        <v>1.042511702318238</v>
+        <v>1.00127314252155</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031002056729334</v>
+        <v>1.039972134579041</v>
       </c>
       <c r="J11">
-        <v>1.026754535827392</v>
+        <v>1.008139344535606</v>
       </c>
       <c r="K11">
-        <v>1.029245811052098</v>
+        <v>1.017186152113014</v>
       </c>
       <c r="L11">
-        <v>1.034865877888992</v>
+        <v>1.011199230285923</v>
       </c>
       <c r="M11">
-        <v>1.046054832591447</v>
+        <v>1.016171089112327</v>
       </c>
       <c r="N11">
-        <v>1.012980344895862</v>
+        <v>1.006731990506245</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019868550938002</v>
+        <v>0.9767013943556664</v>
       </c>
       <c r="D12">
-        <v>1.025490286791547</v>
+        <v>1.00152333941488</v>
       </c>
       <c r="E12">
-        <v>1.031089033227099</v>
+        <v>0.9952620085695717</v>
       </c>
       <c r="F12">
-        <v>1.042280491108593</v>
+        <v>1.00014002562465</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030963833283274</v>
+        <v>1.039648788793262</v>
       </c>
       <c r="J12">
-        <v>1.026634195625243</v>
+        <v>1.00752560450918</v>
       </c>
       <c r="K12">
-        <v>1.029142298345366</v>
+        <v>1.016621412723611</v>
       </c>
       <c r="L12">
-        <v>1.034719658917124</v>
+        <v>1.010480547465064</v>
       </c>
       <c r="M12">
-        <v>1.045869130420726</v>
+        <v>1.015264543456141</v>
       </c>
       <c r="N12">
-        <v>1.012940412492541</v>
+        <v>1.006527748404629</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01991327897206</v>
+        <v>0.9769405122207472</v>
       </c>
       <c r="D13">
-        <v>1.025522373232384</v>
+        <v>1.001691945014406</v>
       </c>
       <c r="E13">
-        <v>1.031130245415084</v>
+        <v>0.9954647828605458</v>
       </c>
       <c r="F13">
-        <v>1.042330079533106</v>
+        <v>1.000383599453579</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030972046252232</v>
+        <v>1.0397184161621</v>
       </c>
       <c r="J13">
-        <v>1.026660010661165</v>
+        <v>1.007657576931989</v>
       </c>
       <c r="K13">
-        <v>1.029164508179444</v>
+        <v>1.016742876431735</v>
       </c>
       <c r="L13">
-        <v>1.034751022343943</v>
+        <v>1.010635061431442</v>
       </c>
       <c r="M13">
-        <v>1.045908962240605</v>
+        <v>1.015459444768146</v>
       </c>
       <c r="N13">
-        <v>1.012948978852539</v>
+        <v>1.006571666480637</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020059847878631</v>
+        <v>0.9777218623125006</v>
       </c>
       <c r="D14">
-        <v>1.025627506394844</v>
+        <v>1.002242962320998</v>
       </c>
       <c r="E14">
-        <v>1.03126530542236</v>
+        <v>0.9961276021250641</v>
       </c>
       <c r="F14">
-        <v>1.042492587100133</v>
+        <v>1.001179710701231</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030998903439202</v>
+        <v>1.039945527541639</v>
       </c>
       <c r="J14">
-        <v>1.026744589216104</v>
+        <v>1.008088757798033</v>
       </c>
       <c r="K14">
-        <v>1.029237257369325</v>
+        <v>1.017139616769489</v>
       </c>
       <c r="L14">
-        <v>1.034853790916722</v>
+        <v>1.011139982837538</v>
       </c>
       <c r="M14">
-        <v>1.046039481526049</v>
+        <v>1.016096353350176</v>
       </c>
       <c r="N14">
-        <v>1.012977044397906</v>
+        <v>1.006715156082917</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020150164648959</v>
+        <v>0.9782016532212047</v>
       </c>
       <c r="D15">
-        <v>1.025692282035376</v>
+        <v>1.002581372926203</v>
       </c>
       <c r="E15">
-        <v>1.031348539618822</v>
+        <v>0.9965347811922606</v>
       </c>
       <c r="F15">
-        <v>1.042592734326398</v>
+        <v>1.001668718540524</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031015410292402</v>
+        <v>1.040084674855677</v>
       </c>
       <c r="J15">
-        <v>1.026796695991616</v>
+        <v>1.008353481700589</v>
       </c>
       <c r="K15">
-        <v>1.029282062934178</v>
+        <v>1.017383114088304</v>
       </c>
       <c r="L15">
-        <v>1.034917113045853</v>
+        <v>1.011450050798937</v>
       </c>
       <c r="M15">
-        <v>1.046119904379074</v>
+        <v>1.016487480724065</v>
       </c>
       <c r="N15">
-        <v>1.012994334379655</v>
+        <v>1.006803251832832</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020676011558596</v>
+        <v>0.9809698919017932</v>
       </c>
       <c r="D16">
-        <v>1.026069297273245</v>
+        <v>1.00453469062155</v>
       </c>
       <c r="E16">
-        <v>1.031833291551173</v>
+        <v>0.9988866516957958</v>
       </c>
       <c r="F16">
-        <v>1.043175953056293</v>
+        <v>1.004492426701222</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03111086454365</v>
+        <v>1.040882739554844</v>
       </c>
       <c r="J16">
-        <v>1.027099904794402</v>
+        <v>1.009880150501289</v>
       </c>
       <c r="K16">
-        <v>1.029542580809301</v>
+        <v>1.018786111126073</v>
       </c>
       <c r="L16">
-        <v>1.035285720305828</v>
+        <v>1.013239300179098</v>
       </c>
       <c r="M16">
-        <v>1.046588084682433</v>
+        <v>1.018744599201752</v>
       </c>
       <c r="N16">
-        <v>1.013094936751816</v>
+        <v>1.007311303069949</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021006004945771</v>
+        <v>0.982685368819629</v>
       </c>
       <c r="D17">
-        <v>1.026305781385028</v>
+        <v>1.005745800051049</v>
       </c>
       <c r="E17">
-        <v>1.032137620260039</v>
+        <v>1.00034632942894</v>
       </c>
       <c r="F17">
-        <v>1.04354206994616</v>
+        <v>1.006244260375712</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031170191299659</v>
+        <v>1.041373060776547</v>
       </c>
       <c r="J17">
-        <v>1.027290032516661</v>
+        <v>1.01082557740068</v>
       </c>
       <c r="K17">
-        <v>1.0297057580574</v>
+        <v>1.019653829067472</v>
       </c>
       <c r="L17">
-        <v>1.035516976537961</v>
+        <v>1.014348288959631</v>
       </c>
       <c r="M17">
-        <v>1.046881835010518</v>
+        <v>1.02014368378804</v>
       </c>
       <c r="N17">
-        <v>1.013158012736164</v>
+        <v>1.007625925404964</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021198535763489</v>
+        <v>0.9836786072990006</v>
       </c>
       <c r="D18">
-        <v>1.026443715265521</v>
+        <v>1.006447222593073</v>
       </c>
       <c r="E18">
-        <v>1.032315221988681</v>
+        <v>1.001192248937251</v>
       </c>
       <c r="F18">
-        <v>1.043755719792136</v>
+        <v>1.007259251567787</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03120459741427</v>
+        <v>1.041655403988937</v>
       </c>
       <c r="J18">
-        <v>1.027400906221499</v>
+        <v>1.011372720630889</v>
       </c>
       <c r="K18">
-        <v>1.029800850139865</v>
+        <v>1.020155588891205</v>
       </c>
       <c r="L18">
-        <v>1.035651877880217</v>
+        <v>1.014990434297559</v>
       </c>
       <c r="M18">
-        <v>1.047053200484203</v>
+        <v>1.020953846399314</v>
       </c>
       <c r="N18">
-        <v>1.013194793222848</v>
+        <v>1.007808004617262</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021264192447397</v>
+        <v>0.9840160429629564</v>
       </c>
       <c r="D19">
-        <v>1.026490746540626</v>
+        <v>1.006685551579189</v>
       </c>
       <c r="E19">
-        <v>1.032375795131908</v>
+        <v>1.001479767328316</v>
       </c>
       <c r="F19">
-        <v>1.043828585787267</v>
+        <v>1.007604195513546</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031216295370705</v>
+        <v>1.041751061046624</v>
       </c>
       <c r="J19">
-        <v>1.027438707084696</v>
+        <v>1.011558560131882</v>
       </c>
       <c r="K19">
-        <v>1.029833259381071</v>
+        <v>1.020325943293953</v>
       </c>
       <c r="L19">
-        <v>1.035697878000018</v>
+        <v>1.015208600281377</v>
       </c>
       <c r="M19">
-        <v>1.04711163602408</v>
+        <v>1.021229102699825</v>
       </c>
       <c r="N19">
-        <v>1.013207332596055</v>
+        <v>1.007869848365084</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020970594466093</v>
+        <v>0.982502080814538</v>
       </c>
       <c r="D20">
-        <v>1.026280409206585</v>
+        <v>1.005616378648108</v>
       </c>
       <c r="E20">
-        <v>1.032104959147544</v>
+        <v>1.000190290164971</v>
       </c>
       <c r="F20">
-        <v>1.04350277870673</v>
+        <v>1.006057014751201</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031163846592786</v>
+        <v>1.041320832958033</v>
       </c>
       <c r="J20">
-        <v>1.027269636145188</v>
+        <v>1.010724589717723</v>
       </c>
       <c r="K20">
-        <v>1.029688259615228</v>
+        <v>1.019561184522301</v>
       </c>
       <c r="L20">
-        <v>1.035492163527373</v>
+        <v>1.014229794374743</v>
       </c>
       <c r="M20">
-        <v>1.046850315692481</v>
+        <v>1.01999418848276</v>
       </c>
       <c r="N20">
-        <v>1.01315124638037</v>
+        <v>1.007592318468447</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020016684730131</v>
+        <v>0.9774921137498087</v>
       </c>
       <c r="D21">
-        <v>1.025596547372937</v>
+        <v>1.002080929013386</v>
       </c>
       <c r="E21">
-        <v>1.031225529599392</v>
+        <v>0.9959326703449878</v>
       </c>
       <c r="F21">
-        <v>1.042444728304376</v>
+        <v>1.000945589809765</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030991003153936</v>
+        <v>1.039878812440413</v>
       </c>
       <c r="J21">
-        <v>1.02671968395083</v>
+        <v>1.007961982335773</v>
       </c>
       <c r="K21">
-        <v>1.029215838212851</v>
+        <v>1.017022984512384</v>
       </c>
       <c r="L21">
-        <v>1.034823527502014</v>
+        <v>1.010991511433638</v>
       </c>
       <c r="M21">
-        <v>1.046001045677353</v>
+        <v>1.015909069820175</v>
       </c>
       <c r="N21">
-        <v>1.012968780236666</v>
+        <v>1.006672967342089</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019417395499079</v>
+        <v>0.9742716845843802</v>
       </c>
       <c r="D22">
-        <v>1.025166558681532</v>
+        <v>0.9998107534924692</v>
       </c>
       <c r="E22">
-        <v>1.030673437273108</v>
+        <v>0.9932034257189276</v>
       </c>
       <c r="F22">
-        <v>1.041780403378545</v>
+        <v>0.9976666586629603</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030880549886287</v>
+        <v>1.03893808290734</v>
       </c>
       <c r="J22">
-        <v>1.026373693864588</v>
+        <v>1.00618417752208</v>
       </c>
       <c r="K22">
-        <v>1.028918038108807</v>
+        <v>1.015385960325569</v>
       </c>
       <c r="L22">
-        <v>1.034403260257181</v>
+        <v>1.008910737255807</v>
       </c>
       <c r="M22">
-        <v>1.045467319751684</v>
+        <v>1.013284481651835</v>
       </c>
       <c r="N22">
-        <v>1.012853963317733</v>
+        <v>1.006081348490026</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019735044869397</v>
+        <v>0.9759857790179765</v>
       </c>
       <c r="D23">
-        <v>1.025394504905581</v>
+        <v>1.001018814362577</v>
       </c>
       <c r="E23">
-        <v>1.030966031681399</v>
+        <v>0.9946553535469771</v>
       </c>
       <c r="F23">
-        <v>1.042132487437129</v>
+        <v>0.99941124612523</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030939271678687</v>
+        <v>1.039440069941932</v>
       </c>
       <c r="J23">
-        <v>1.026557129582314</v>
+        <v>1.007130599216463</v>
       </c>
       <c r="K23">
-        <v>1.029075980143061</v>
+        <v>1.016257771097762</v>
       </c>
       <c r="L23">
-        <v>1.034626039035449</v>
+        <v>1.010018151958719</v>
       </c>
       <c r="M23">
-        <v>1.045750234330921</v>
+        <v>1.014681293217296</v>
       </c>
       <c r="N23">
-        <v>1.012914838634207</v>
+        <v>1.006396297950248</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020986594779402</v>
+        <v>0.9825849235082883</v>
       </c>
       <c r="D24">
-        <v>1.026291873812298</v>
+        <v>1.005674874028358</v>
       </c>
       <c r="E24">
-        <v>1.032119717014511</v>
+        <v>1.00026081451482</v>
       </c>
       <c r="F24">
-        <v>1.043520532417577</v>
+        <v>1.006141644038223</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031166714105139</v>
+        <v>1.041344443737375</v>
       </c>
       <c r="J24">
-        <v>1.027278852463579</v>
+        <v>1.010770234997564</v>
       </c>
       <c r="K24">
-        <v>1.029696166675277</v>
+        <v>1.019603060075808</v>
       </c>
       <c r="L24">
-        <v>1.035503375417245</v>
+        <v>1.01428335150561</v>
       </c>
       <c r="M24">
-        <v>1.046864557835777</v>
+        <v>1.02006175717767</v>
       </c>
       <c r="N24">
-        <v>1.013154303838308</v>
+        <v>1.007607508423199</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022440954303498</v>
+        <v>0.9899555176110076</v>
       </c>
       <c r="D25">
-        <v>1.027333084550734</v>
+        <v>1.010882948204033</v>
       </c>
       <c r="E25">
-        <v>1.033462105157555</v>
+        <v>1.006551711857325</v>
       </c>
       <c r="F25">
-        <v>1.045135200134708</v>
+        <v>1.01368583654749</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031422871220043</v>
+        <v>1.043411576354843</v>
       </c>
       <c r="J25">
-        <v>1.02811540320976</v>
+        <v>1.01482571241367</v>
       </c>
       <c r="K25">
-        <v>1.030412462870842</v>
+        <v>1.02331463726756</v>
       </c>
       <c r="L25">
-        <v>1.036521999952118</v>
+        <v>1.019049165246952</v>
       </c>
       <c r="M25">
-        <v>1.048158677675268</v>
+        <v>1.026075348508084</v>
       </c>
       <c r="N25">
-        <v>1.013431769865446</v>
+        <v>1.008957060489259</v>
       </c>
     </row>
   </sheetData>
